--- a/OldBooksDeal/DB.xlsx
+++ b/OldBooksDeal/DB.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{80C42A81-A704-476A-99AE-D30C2AA1781A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="12345" windowHeight="3180" activeTab="2"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="12375" windowHeight="4710" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserDB" sheetId="1" r:id="rId1"/>
     <sheet name="BoardDB" sheetId="3" r:id="rId2"/>
     <sheet name="LikeDB" sheetId="4" r:id="rId3"/>
+    <sheet name="ComentDB" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:E14"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>컬럼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,14 +266,22 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comentNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트객체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +443,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,9 +529,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,6 +581,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,14 +774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -736,7 +790,7 @@
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
@@ -745,7 +799,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -779,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -796,7 +850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -813,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -830,7 +884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -847,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -862,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
@@ -877,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -892,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -910,14 +964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -926,7 +980,7 @@
     <col min="6" max="6" width="46.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
@@ -935,7 +989,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -952,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -969,7 +1023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -984,7 +1038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
@@ -999,7 +1053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
@@ -1014,7 +1068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
@@ -1029,7 +1083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1044,7 +1098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1059,7 +1113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1104,7 +1158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
@@ -1119,7 +1173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1136,25 +1190,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1172,14 +1226,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -1188,7 +1242,7 @@
     <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -1197,7 +1251,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1214,13 +1268,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -1234,7 +1288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -1248,7 +1302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1276,7 +1330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -1291,7 +1345,114 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892A7EBC-82D6-46ED-8B65-4CCFB615502E}">
+  <dimension ref="A2:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>

--- a/OldBooksDeal/DB.xlsx
+++ b/OldBooksDeal/DB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{80C42A81-A704-476A-99AE-D30C2AA1781A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="12375" windowHeight="4710" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="12375" windowHeight="5145" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserDB" sheetId="1" r:id="rId1"/>
@@ -13,13 +12,13 @@
     <sheet name="LikeDB" sheetId="4" r:id="rId3"/>
     <sheet name="ComentDB" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:G15"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:E14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>컬럼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,19 +268,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comentNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코멘트객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트가 달려있는 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 그룹 번호 = 원글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 그룹 순서 = 원글(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트를 단 유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 좋아요 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commnetno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요를 누를 대상 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_fk_com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_fk_board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_fk_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comentno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writeday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글작성날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,7 +564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,27 +596,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,24 +630,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,14 +805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -790,7 +821,7 @@
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
@@ -799,7 +830,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -816,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -833,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -850,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -867,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -884,7 +915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -901,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -916,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
@@ -931,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -946,7 +977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -964,14 +995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -980,7 +1011,7 @@
     <col min="6" max="6" width="46.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
@@ -989,7 +1020,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1023,7 +1054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1038,7 +1069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1053,7 +1084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
@@ -1068,7 +1099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
@@ -1083,7 +1114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1098,7 +1129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1113,7 +1144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1143,7 +1174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1158,7 +1189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
@@ -1173,7 +1204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1190,25 +1221,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1226,23 +1257,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -1251,7 +1282,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1268,19 +1299,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
@@ -1288,13 +1322,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
@@ -1302,13 +1339,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
@@ -1316,13 +1356,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>60</v>
       </c>
@@ -1330,7 +1373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -1345,12 +1388,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1363,14 +1416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892A7EBC-82D6-46ED-8B65-4CCFB615502E}">
-  <dimension ref="A2:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -1379,7 +1432,7 @@
     <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1441,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1405,59 +1458,146 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>500</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/OldBooksDeal/DB.xlsx
+++ b/OldBooksDeal/DB.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="12375" windowHeight="5145" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="13365" windowHeight="4305" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="UserDB" sheetId="1" r:id="rId1"/>
     <sheet name="BoardDB" sheetId="3" r:id="rId2"/>
     <sheet name="LikeDB" sheetId="4" r:id="rId3"/>
     <sheet name="ComentDB" sheetId="5" r:id="rId4"/>
+    <sheet name="BookDB" sheetId="6" r:id="rId5"/>
+    <sheet name="DB" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:E14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="110">
   <si>
     <t>컬럼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,11 +337,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글작성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discountRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VACHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK칼럼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,187 +923,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F12"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>50</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>50</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1261,7 +1378,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1419,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1574,14 +1691,14 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1607,4 +1724,528 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A15:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>